--- a/data/data_SEM.xlsx
+++ b/data/data_SEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2017/StreamStability-IrMaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAEBB61B-83B4-4681-91C1-B84D285129DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AAEBB61B-83B4-4681-91C1-B84D285129DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D66C0DE-DEF8-4A3A-B93C-895B6E6DE550}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{CA9A1663-883E-48FE-8555-999086E44FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA9A1663-883E-48FE-8555-999086E44FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>canopy</t>
   </si>
   <si>
-    <t>clorophyll</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>macroinvertebrates</t>
+  </si>
+  <si>
+    <t>epilithon</t>
   </si>
 </sst>
 </file>
@@ -100,10 +100,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>776.30097679999994</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>356.60569659999999</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>445.85341649999998</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>362.56496179999999</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>462.17637989999997</v>

--- a/data/data_SEM.xlsx
+++ b/data/data_SEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2017/StreamStability-IrMaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AAEBB61B-83B4-4681-91C1-B84D285129DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D66C0DE-DEF8-4A3A-B93C-895B6E6DE550}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{AAEBB61B-83B4-4681-91C1-B84D285129DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18ADC48D-72A1-4D37-AA1F-54E010A5C76B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA9A1663-883E-48FE-8555-999086E44FD3}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{CA9A1663-883E-48FE-8555-999086E44FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>canopy</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>decapod</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>epilithon</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,8 +484,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>776.30097679999994</v>
@@ -512,8 +512,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>356.60569659999999</v>
@@ -540,8 +540,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>445.85341649999998</v>
@@ -568,8 +568,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
+      <c r="A9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>362.56496179999999</v>
@@ -862,8 +862,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
+      <c r="A30" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B30" s="1">
         <v>462.17637989999997</v>
